--- a/team_specific_matrix/Northern Ky._A.xlsx
+++ b/team_specific_matrix/Northern Ky._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1714285714285714</v>
+        <v>0.1720116618075802</v>
       </c>
       <c r="C2">
-        <v>0.5857142857142857</v>
+        <v>0.5772594752186589</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03214285714285714</v>
+        <v>0.02915451895043732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1107142857142857</v>
+        <v>0.1166180758017493</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.1049562682215743</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005917159763313609</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="C3">
-        <v>0.01183431952662722</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05917159763313609</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7514792899408284</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1715976331360947</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6585365853658537</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3170731707317073</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01875</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.175</v>
+        <v>0.1970443349753695</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03125</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2375</v>
+        <v>0.2216748768472906</v>
       </c>
       <c r="R6">
-        <v>0.05625</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S6">
-        <v>0.38125</v>
+        <v>0.354679802955665</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1063829787234043</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0425531914893617</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E7">
-        <v>0.007092198581560284</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="F7">
-        <v>0.07092198581560284</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1418439716312057</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02836879432624113</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1560283687943262</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.05673758865248227</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="S7">
-        <v>0.3900709219858156</v>
+        <v>0.396551724137931</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09919571045576407</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0160857908847185</v>
+        <v>0.01528384279475982</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05093833780160858</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1152815013404826</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02412868632707775</v>
+        <v>0.02838427947598253</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1876675603217158</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="R8">
-        <v>0.07506702412868632</v>
+        <v>0.07205240174672489</v>
       </c>
       <c r="S8">
-        <v>0.4316353887399464</v>
+        <v>0.4039301310043668</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1511627906976744</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005813953488372093</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05813953488372093</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1162790697674419</v>
+        <v>0.1207729468599034</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02325581395348837</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2034883720930233</v>
+        <v>0.1932367149758454</v>
       </c>
       <c r="R9">
-        <v>0.0872093023255814</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="S9">
-        <v>0.3546511627906977</v>
+        <v>0.3429951690821256</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1313868613138686</v>
+        <v>0.1239731142643764</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02281021897810219</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.072992700729927</v>
+        <v>0.07617625093353249</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1031021897810219</v>
+        <v>0.1097834204630321</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01824817518248175</v>
+        <v>0.0186706497386109</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2281021897810219</v>
+        <v>0.2255414488424197</v>
       </c>
       <c r="R10">
-        <v>0.06751824817518248</v>
+        <v>0.06422703510082151</v>
       </c>
       <c r="S10">
-        <v>0.3558394160583941</v>
+        <v>0.3622106049290515</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004901960784313725</v>
+        <v>0.004</v>
       </c>
       <c r="G11">
-        <v>0.1323529411764706</v>
+        <v>0.132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08823529411764706</v>
+        <v>0.096</v>
       </c>
       <c r="K11">
-        <v>0.2009803921568628</v>
+        <v>0.188</v>
       </c>
       <c r="L11">
-        <v>0.5588235294117647</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01470588235294118</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7948717948717948</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1538461538461539</v>
+        <v>0.1712328767123288</v>
       </c>
       <c r="K12">
-        <v>0.0170940170940171</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008547008547008548</v>
+        <v>0.00684931506849315</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02564102564102564</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005154639175257732</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1288659793814433</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="I15">
-        <v>0.1030927835051546</v>
+        <v>0.1061224489795918</v>
       </c>
       <c r="J15">
-        <v>0.3917525773195876</v>
+        <v>0.3836734693877551</v>
       </c>
       <c r="K15">
-        <v>0.04123711340206185</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01030927835051546</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05670103092783505</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2628865979381443</v>
+        <v>0.273469387755102</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0115606936416185</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1791907514450867</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.05780346820809248</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J16">
-        <v>0.4797687861271676</v>
+        <v>0.4619047619047619</v>
       </c>
       <c r="K16">
-        <v>0.1040462427745665</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02312138728323699</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05202312138728324</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09248554913294797</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01201923076923077</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1899038461538461</v>
+        <v>0.1830708661417323</v>
       </c>
       <c r="I17">
-        <v>0.09615384615384616</v>
+        <v>0.09251968503937008</v>
       </c>
       <c r="J17">
-        <v>0.4254807692307692</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="K17">
-        <v>0.08173076923076923</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007211538461538462</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05288461538461538</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1346153846153846</v>
+        <v>0.1377952755905512</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01526717557251908</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1450381679389313</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="I18">
-        <v>0.08396946564885496</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J18">
-        <v>0.4503816793893129</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="K18">
-        <v>0.06870229007633588</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09923664122137404</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1374045801526718</v>
+        <v>0.1446540880503145</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005545286506469501</v>
+        <v>0.0076103500761035</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2042513863216266</v>
+        <v>0.2100456621004566</v>
       </c>
       <c r="I19">
-        <v>0.08687615526802218</v>
+        <v>0.08447488584474885</v>
       </c>
       <c r="J19">
-        <v>0.388170055452865</v>
+        <v>0.380517503805175</v>
       </c>
       <c r="K19">
-        <v>0.08410351201478743</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02865064695009242</v>
+        <v>0.02663622526636225</v>
       </c>
       <c r="N19">
-        <v>0.001848428835489834</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="O19">
-        <v>0.06284658040665435</v>
+        <v>0.06773211567732115</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1377079482439926</v>
+        <v>0.134703196347032</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northern Ky._A.xlsx
+++ b/team_specific_matrix/Northern Ky._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1720116618075802</v>
+        <v>0.1731843575418995</v>
       </c>
       <c r="C2">
-        <v>0.5772594752186589</v>
+        <v>0.5782122905027933</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02915451895043732</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1166180758017493</v>
+        <v>0.1201117318435754</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1049562682215743</v>
+        <v>0.1005586592178771</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004901960784313725</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C3">
-        <v>0.009803921568627451</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06862745098039216</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1588785046728972</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3111111111111111</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06403940886699508</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01477832512315271</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0541871921182266</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1970443349753695</v>
+        <v>0.1945701357466063</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02463054187192118</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2216748768472906</v>
+        <v>0.2126696832579185</v>
       </c>
       <c r="R6">
-        <v>0.06896551724137931</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="S6">
-        <v>0.354679802955665</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09195402298850575</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03448275862068965</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E7">
-        <v>0.005747126436781609</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="F7">
-        <v>0.06896551724137931</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1551724137931035</v>
+        <v>0.1576086956521739</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02298850574712644</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="R7">
-        <v>0.05747126436781609</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="S7">
-        <v>0.396551724137931</v>
+        <v>0.3858695652173913</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1222707423580786</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01528384279475982</v>
+        <v>0.01875</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04803493449781659</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1135371179039301</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02838427947598253</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1965065502183406</v>
+        <v>0.19375</v>
       </c>
       <c r="R8">
-        <v>0.07205240174672489</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="S8">
-        <v>0.4039301310043668</v>
+        <v>0.3979166666666666</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1449275362318841</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01449275362318841</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06280193236714976</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1207729468599034</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02898550724637681</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1932367149758454</v>
+        <v>0.1954545454545455</v>
       </c>
       <c r="R9">
-        <v>0.09178743961352658</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="S9">
-        <v>0.3429951690821256</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1239731142643764</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01941747572815534</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="F10">
-        <v>0.07617625093353249</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1097834204630321</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0186706497386109</v>
+        <v>0.01875</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2255414488424197</v>
+        <v>0.2243055555555556</v>
       </c>
       <c r="R10">
-        <v>0.06422703510082151</v>
+        <v>0.06736111111111111</v>
       </c>
       <c r="S10">
-        <v>0.3622106049290515</v>
+        <v>0.3638888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="G11">
-        <v>0.132</v>
+        <v>0.1263940520446097</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.096</v>
+        <v>0.09293680297397769</v>
       </c>
       <c r="K11">
-        <v>0.188</v>
+        <v>0.1895910780669145</v>
       </c>
       <c r="L11">
-        <v>0.5679999999999999</v>
+        <v>0.5687732342007435</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.012</v>
+        <v>0.01858736059479554</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7876712328767124</v>
+        <v>0.7784810126582279</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1712328767123288</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="K12">
-        <v>0.0136986301369863</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L12">
-        <v>0.02054794520547945</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.00684931506849315</v>
+        <v>0.006329113924050633</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6956521739130435</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2826086956521739</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02173913043478261</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004081632653061225</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1224489795918367</v>
+        <v>0.1201550387596899</v>
       </c>
       <c r="I15">
-        <v>0.1061224489795918</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="J15">
-        <v>0.3836734693877551</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="K15">
-        <v>0.04081632653061224</v>
+        <v>0.04263565891472868</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00816326530612245</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06122448979591837</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.273469387755102</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02380952380952381</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="I16">
-        <v>0.05714285714285714</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="J16">
-        <v>0.4619047619047619</v>
+        <v>0.4625550660792951</v>
       </c>
       <c r="K16">
-        <v>0.08571428571428572</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02857142857142857</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09523809523809523</v>
+        <v>0.1013215859030837</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01181102362204724</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1830708661417323</v>
+        <v>0.176252319109462</v>
       </c>
       <c r="I17">
-        <v>0.09251968503937008</v>
+        <v>0.09276437847866419</v>
       </c>
       <c r="J17">
-        <v>0.4330708661417323</v>
+        <v>0.4359925788497217</v>
       </c>
       <c r="K17">
-        <v>0.07874015748031496</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007874015748031496</v>
+        <v>0.00927643784786642</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05511811023622047</v>
+        <v>0.05565862708719851</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1377952755905512</v>
+        <v>0.1391465677179963</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01257861635220126</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1320754716981132</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="I18">
-        <v>0.07547169811320754</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="J18">
-        <v>0.4339622641509434</v>
+        <v>0.44</v>
       </c>
       <c r="K18">
-        <v>0.09433962264150944</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1069182389937107</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1446540880503145</v>
+        <v>0.1371428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0076103500761035</v>
+        <v>0.007890961262553802</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2100456621004566</v>
+        <v>0.2087517934002869</v>
       </c>
       <c r="I19">
-        <v>0.08447488584474885</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="J19">
-        <v>0.380517503805175</v>
+        <v>0.3888091822094691</v>
       </c>
       <c r="K19">
-        <v>0.0867579908675799</v>
+        <v>0.08608321377331421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02663622526636225</v>
+        <v>0.02582496413199426</v>
       </c>
       <c r="N19">
-        <v>0.0015220700152207</v>
+        <v>0.001434720229555237</v>
       </c>
       <c r="O19">
-        <v>0.06773211567732115</v>
+        <v>0.06671449067431851</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.134703196347032</v>
+        <v>0.1312769010043042</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northern Ky._A.xlsx
+++ b/team_specific_matrix/Northern Ky._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1731843575418995</v>
+        <v>0.1766304347826087</v>
       </c>
       <c r="C2">
-        <v>0.5782122905027933</v>
+        <v>0.5733695652173914</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02793296089385475</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1201117318435754</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1005586592178771</v>
+        <v>0.1032608695652174</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004672897196261682</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="C3">
-        <v>0.01401869158878505</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06542056074766354</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7570093457943925</v>
+        <v>0.7568807339449541</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1588785046728972</v>
+        <v>0.1605504587155963</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.28</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06334841628959276</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01809954751131222</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06334841628959276</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1945701357466063</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02714932126696833</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2126696832579185</v>
+        <v>0.2114537444933921</v>
       </c>
       <c r="R6">
-        <v>0.06787330316742081</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="S6">
-        <v>0.3529411764705883</v>
+        <v>0.3612334801762114</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03260869565217391</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
-        <v>0.005434782608695652</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="F7">
-        <v>0.07608695652173914</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1576086956521739</v>
+        <v>0.15625</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1684782608695652</v>
+        <v>0.1822916666666667</v>
       </c>
       <c r="R7">
-        <v>0.06521739130434782</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.3858695652173913</v>
+        <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1208333333333333</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01875</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04583333333333333</v>
+        <v>0.0439121756487026</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1208333333333333</v>
+        <v>0.1177644710578842</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02916666666666667</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.19375</v>
+        <v>0.1976047904191617</v>
       </c>
       <c r="R8">
-        <v>0.07291666666666667</v>
+        <v>0.07385229540918163</v>
       </c>
       <c r="S8">
-        <v>0.3979166666666666</v>
+        <v>0.3992015968063872</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1363636363636364</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01363636363636364</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06363636363636363</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1272727272727273</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02727272727272727</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1954545454545455</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R9">
-        <v>0.08636363636363636</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S9">
-        <v>0.35</v>
+        <v>0.3593073593073593</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1215277777777778</v>
+        <v>0.1206199460916442</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01944444444444444</v>
+        <v>0.01954177897574124</v>
       </c>
       <c r="E10">
-        <v>0.0006944444444444445</v>
+        <v>0.0006738544474393531</v>
       </c>
       <c r="F10">
-        <v>0.0763888888888889</v>
+        <v>0.07749326145552561</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1076388888888889</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01875</v>
+        <v>0.01954177897574124</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2243055555555556</v>
+        <v>0.2257412398921833</v>
       </c>
       <c r="R10">
-        <v>0.06736111111111111</v>
+        <v>0.06873315363881402</v>
       </c>
       <c r="S10">
-        <v>0.3638888888888889</v>
+        <v>0.3605121293800539</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003717472118959108</v>
+        <v>0.003496503496503497</v>
       </c>
       <c r="G11">
-        <v>0.1263940520446097</v>
+        <v>0.1293706293706294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09293680297397769</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="K11">
-        <v>0.1895910780669145</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L11">
-        <v>0.5687732342007435</v>
+        <v>0.5629370629370629</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01858736059479554</v>
+        <v>0.01748251748251748</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7784810126582279</v>
+        <v>0.7724550898203593</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1772151898734177</v>
+        <v>0.1796407185628743</v>
       </c>
       <c r="K12">
-        <v>0.01265822784810127</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="L12">
-        <v>0.02531645569620253</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006329113924050633</v>
+        <v>0.005988023952095809</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.003875968992248062</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1201550387596899</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="I15">
-        <v>0.1124031007751938</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="J15">
-        <v>0.375968992248062</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="K15">
-        <v>0.04263565891472868</v>
+        <v>0.04868913857677903</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007751937984496124</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05813953488372093</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2790697674418605</v>
+        <v>0.2808988764044944</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02643171806167401</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1938325991189427</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="I16">
-        <v>0.05286343612334802</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="J16">
-        <v>0.4625550660792951</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="K16">
-        <v>0.09251101321585903</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02643171806167401</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04405286343612335</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1013215859030837</v>
+        <v>0.09913793103448276</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01298701298701299</v>
+        <v>0.0124113475177305</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.176252319109462</v>
+        <v>0.173758865248227</v>
       </c>
       <c r="I17">
-        <v>0.09276437847866419</v>
+        <v>0.09397163120567376</v>
       </c>
       <c r="J17">
-        <v>0.4359925788497217</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="K17">
-        <v>0.07792207792207792</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00927643784786642</v>
+        <v>0.008865248226950355</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05565862708719851</v>
+        <v>0.0549645390070922</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1391465677179963</v>
+        <v>0.1400709219858156</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01142857142857143</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1371428571428571</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="I18">
-        <v>0.07428571428571429</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J18">
-        <v>0.44</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="K18">
-        <v>0.09714285714285714</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1028571428571429</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1371428571428571</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007890961262553802</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2087517934002869</v>
+        <v>0.2116585704371964</v>
       </c>
       <c r="I19">
-        <v>0.08321377331420372</v>
+        <v>0.08188757807078417</v>
       </c>
       <c r="J19">
-        <v>0.3888091822094691</v>
+        <v>0.3886190145732131</v>
       </c>
       <c r="K19">
-        <v>0.08608321377331421</v>
+        <v>0.08605135322692574</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02582496413199426</v>
+        <v>0.02498265093684941</v>
       </c>
       <c r="N19">
-        <v>0.001434720229555237</v>
+        <v>0.001387925052047189</v>
       </c>
       <c r="O19">
-        <v>0.06671449067431851</v>
+        <v>0.06731436502428868</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1312769010043042</v>
+        <v>0.1304649548924358</v>
       </c>
     </row>
   </sheetData>
